--- a/标准化.xlsx
+++ b/标准化.xlsx
@@ -14,13 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>每月综合评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>各地综合评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,20 +374,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S31"/>
+  <dimension ref="A2:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="S2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.62594890432583805</v>
       </c>
@@ -436,10 +447,13 @@
         <v>0.59527931771203002</v>
       </c>
       <c r="S3">
-        <v>7.3382822471015698</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1.09364213587518</v>
+      </c>
+      <c r="T3">
+        <v>3.4718054088321598E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1.20070351580097</v>
       </c>
@@ -492,10 +506,13 @@
         <v>1.1390971225819899</v>
       </c>
       <c r="S4">
-        <v>8.1007105876201102</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1.2072686946118301</v>
+      </c>
+      <c r="T4">
+        <v>2.7451591851953599E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.37923880237095098</v>
       </c>
@@ -548,10 +565,13 @@
         <v>1.2714413968087599</v>
       </c>
       <c r="S5">
-        <v>6.6639290336496204</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0.99314162855479104</v>
+      </c>
+      <c r="T5">
+        <v>3.3021671816066099E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.25275515849897601</v>
       </c>
@@ -604,10 +624,13 @@
         <v>1.03425728470944</v>
       </c>
       <c r="S6">
-        <v>6.01923532672566</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0.89706134997132703</v>
+      </c>
+      <c r="T6">
+        <v>3.2243392729253702E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.63078113782041301</v>
       </c>
@@ -660,10 +683,13 @@
         <v>0.89996913487802699</v>
       </c>
       <c r="S7">
-        <v>6.1329289762624697</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0.914005392395424</v>
+      </c>
+      <c r="T7">
+        <v>3.67748837720972E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.23829510799353801</v>
       </c>
@@ -716,10 +742,13 @@
         <v>0.43077677514235602</v>
       </c>
       <c r="S8">
-        <v>6.0828837529177298</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0.90654703046464502</v>
+      </c>
+      <c r="T8">
+        <v>3.7201186149799302E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.37297293619452998</v>
       </c>
@@ -772,10 +801,13 @@
         <v>0.34845219171341502</v>
       </c>
       <c r="S9">
-        <v>6.5996314843342097</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0.98355920765613702</v>
+      </c>
+      <c r="T9">
+        <v>4.3323164432244501E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.54029417114020095</v>
       </c>
@@ -828,10 +860,13 @@
         <v>0.176436528779436</v>
       </c>
       <c r="S10">
-        <v>7.2278169209834697</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1.0771792183792399</v>
+      </c>
+      <c r="T10">
+        <v>4.3187914685623198E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1.17964144880864</v>
       </c>
@@ -884,10 +919,13 @@
         <v>0.388704724413374</v>
       </c>
       <c r="S11">
-        <v>8.0107651042364001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1.19386389942302</v>
+      </c>
+      <c r="T11">
+        <v>4.0554197145490502E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.38130852443035002</v>
       </c>
@@ -940,10 +978,13 @@
         <v>0.324825613785451</v>
       </c>
       <c r="S12">
-        <v>7.2715201565014604</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1.08369241836625</v>
+      </c>
+      <c r="T12">
+        <v>4.2193306554242797E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.38053465341978099</v>
       </c>
@@ -996,10 +1037,13 @@
         <v>0.80315229178482395</v>
       </c>
       <c r="S13">
-        <v>7.2560937841884998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1.0813933884029601</v>
+      </c>
+      <c r="T13">
+        <v>3.9302930884021897E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.84928247568002302</v>
       </c>
@@ -1052,10 +1096,13 @@
         <v>1.4052983195056099</v>
       </c>
       <c r="S14">
-        <v>7.4862933258727198</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1.1157005886397</v>
+      </c>
+      <c r="T14">
+        <v>3.3920011805440603E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.44018673002181702</v>
       </c>
@@ -1108,10 +1155,13 @@
         <v>1.26785409672335</v>
       </c>
       <c r="S15">
-        <v>6.6268579020332004</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0.98761682721912303</v>
+      </c>
+      <c r="T15">
+        <v>3.10953514413627E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.459535258606043</v>
       </c>
@@ -1164,10 +1214,13 @@
         <v>1.0906360950818801</v>
       </c>
       <c r="S16">
-        <v>6.7795369300229904</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1.01037095586279</v>
+      </c>
+      <c r="T16">
+        <v>2.9784210141854402E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1.7838142331726601</v>
       </c>
@@ -1220,10 +1273,13 @@
         <v>1.75047379142352</v>
       </c>
       <c r="S17">
-        <v>6.6300135535979798</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.98808712168330104</v>
+      </c>
+      <c r="T17">
+        <v>2.8819785132331101E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1.0923822143605899</v>
       </c>
@@ -1276,10 +1332,13 @@
         <v>1.4818994058586099</v>
       </c>
       <c r="S18">
-        <v>5.7057803416954496</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.85034638756107594</v>
+      </c>
+      <c r="T18">
+        <v>2.4894040902749499E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.15996165977190799</v>
       </c>
@@ -1332,10 +1391,13 @@
         <v>0.76811726659933799</v>
       </c>
       <c r="S19">
-        <v>4.4020613543845899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.65604996097884505</v>
+      </c>
+      <c r="T19">
+        <v>3.2072095232597297E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.44915775831615301</v>
       </c>
@@ -1388,10 +1450,13 @@
         <v>0.451022173124487</v>
       </c>
       <c r="S20">
-        <v>4.7088453337720599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.70177072711619404</v>
+      </c>
+      <c r="T20">
+        <v>4.1292777114863198E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.145636869818599</v>
       </c>
@@ -1444,10 +1509,13 @@
         <v>0.84288610213709902</v>
       </c>
       <c r="S21">
-        <v>4.34892930554137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.64813156190073895</v>
+      </c>
+      <c r="T21">
+        <v>4.08729383714279E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.12343251935621299</v>
       </c>
@@ -1500,10 +1568,13 @@
         <v>0.54824282283695402</v>
       </c>
       <c r="S22">
-        <v>4.4222181429776102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.65905397644008701</v>
+      </c>
+      <c r="T22">
+        <v>5.0698838807005597E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.20263494001465199</v>
       </c>
@@ -1556,10 +1627,13 @@
         <v>0.50627626328465802</v>
       </c>
       <c r="S23">
-        <v>4.2426839897557898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.63229756285711203</v>
+      </c>
+      <c r="T23">
+        <v>4.9852437774081902E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.25542352440138499</v>
       </c>
@@ -1612,10 +1686,13 @@
         <v>0.50205828289853505</v>
       </c>
       <c r="S24">
-        <v>4.4619924564096998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.66498163956751999</v>
+      </c>
+      <c r="T24">
+        <v>4.9262931867069301E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.225053653022808</v>
       </c>
@@ -1668,10 +1745,13 @@
         <v>0.59416598240067298</v>
       </c>
       <c r="S25">
-        <v>4.8755692141604001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.72661799443428099</v>
+      </c>
+      <c r="T25">
+        <v>4.47716459360619E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.48902939205204998</v>
       </c>
@@ -1724,10 +1804,13 @@
         <v>1.2143801048174701</v>
       </c>
       <c r="S26">
-        <v>5.9393969509349098</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.88516284172587301</v>
+      </c>
+      <c r="T26">
+        <v>2.6779506928904701E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.53147715402853302</v>
       </c>
@@ -1780,10 +1863,13 @@
         <v>1.8762095574315301</v>
       </c>
       <c r="S27">
-        <v>5.7727021806607901</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.86031991275924602</v>
+      </c>
+      <c r="T27">
+        <v>3.3330843938957702E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.83401248765226998</v>
       </c>
@@ -1836,10 +1922,13 @@
         <v>0.85659611390337498</v>
       </c>
       <c r="S28">
-        <v>6.2692077910562496</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.93431535718922498</v>
+      </c>
+      <c r="T28">
+        <v>2.2967100351833001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.44419130557759801</v>
       </c>
@@ -1892,10 +1981,13 @@
         <v>1.0041563916749201</v>
       </c>
       <c r="S29">
-        <v>6.1436932065245102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.91560961193596802</v>
+      </c>
+      <c r="T29">
+        <v>2.4465135630228101E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.84937383680752598</v>
       </c>
@@ -1948,63 +2040,122 @@
         <v>1.0624350818705699</v>
       </c>
       <c r="S30">
-        <v>5.7790548317786001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.86126666387933204</v>
+      </c>
+      <c r="T30">
+        <v>2.5148054514116398E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31">
-        <v>8.6794566608886701</v>
+        <v>0.51143077387661595</v>
       </c>
       <c r="C31">
-        <v>9.91955515583048</v>
+        <v>0.58450269044130798</v>
       </c>
       <c r="D31">
-        <v>11.409654217680499</v>
+        <v>0.67230571154386898</v>
       </c>
       <c r="E31">
-        <v>16.350156767519401</v>
+        <v>0.96342128952577599</v>
       </c>
       <c r="F31">
-        <v>10.294037532154</v>
+        <v>0.606568796536329</v>
       </c>
       <c r="G31">
-        <v>12.263718396872401</v>
+        <v>0.72263083224787406</v>
       </c>
       <c r="H31">
-        <v>10.114105187507199</v>
+        <v>0.59596641186369903</v>
       </c>
       <c r="I31">
-        <v>36.285939993855898</v>
+        <v>2.13812305273935</v>
       </c>
       <c r="J31">
-        <v>13.2547802096938</v>
+        <v>0.78102844049619102</v>
       </c>
       <c r="K31">
-        <v>22.167601199817199</v>
+        <v>1.30621004050845</v>
       </c>
       <c r="L31">
-        <v>5.0924597439227197</v>
+        <v>0.30006954692291199</v>
       </c>
       <c r="M31">
-        <v>25.972517443656301</v>
+        <v>1.53041200788403</v>
       </c>
       <c r="N31">
-        <v>20.056625801744101</v>
+        <v>1.18182232551058</v>
       </c>
       <c r="O31">
-        <v>15.017793940190099</v>
+        <v>0.88491276318724799</v>
       </c>
       <c r="P31">
-        <v>31.681009395935099</v>
+        <v>1.8667808119335101</v>
       </c>
       <c r="Q31">
-        <v>17.014404419433301</v>
+        <v>1.0025616071674199</v>
       </c>
       <c r="R31">
-        <v>13.8338823670517</v>
+        <v>0.81515162078992398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0.104379570720064</v>
+      </c>
+      <c r="C32">
+        <v>5.2034924123779198E-2</v>
+      </c>
+      <c r="D32">
+        <v>7.1301836841733496E-2</v>
+      </c>
+      <c r="E32">
+        <v>3.20886662811306E-2</v>
+      </c>
+      <c r="F32">
+        <v>4.6850171251196497E-2</v>
+      </c>
+      <c r="G32">
+        <v>4.8976169594974001E-2</v>
+      </c>
+      <c r="H32">
+        <v>5.8017369705509997E-2</v>
+      </c>
+      <c r="I32">
+        <v>5.0176607444285502E-2</v>
+      </c>
+      <c r="J32">
+        <v>8.2570067990269003E-2</v>
+      </c>
+      <c r="K32">
+        <v>9.1050761877494196E-2</v>
+      </c>
+      <c r="L32">
+        <v>6.7952409222163598E-2</v>
+      </c>
+      <c r="M32">
+        <v>4.10740924119192E-2</v>
+      </c>
+      <c r="N32">
+        <v>4.4896289790529897E-2</v>
+      </c>
+      <c r="O32">
+        <v>5.1257312609180997E-2</v>
+      </c>
+      <c r="P32">
+        <v>2.5129276771089198E-2</v>
+      </c>
+      <c r="Q32">
+        <v>5.7360081712809201E-2</v>
+      </c>
+      <c r="R32">
+        <v>7.4884391651872106E-2</v>
       </c>
     </row>
   </sheetData>
